--- a/AleksandrinaLesson5/TestCase1.xlsx
+++ b/AleksandrinaLesson5/TestCase1.xlsx
@@ -513,7 +513,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
